--- a/src/main/webapp/WEB-INF/template/临时变价导入模板.xlsx
+++ b/src/main/webapp/WEB-INF/template/临时变价导入模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21100\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目\爱亲\scmp-api\src\main\webapp\WEB-INF\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBFE3AB-854B-467F-BAA8-9138D4036B87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5D5689-105E-49DD-8DD1-62BD1855F5FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,49 +24,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>张廷豪</author>
-  </authors>
-  <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{D6666638-FCF3-47D8-B9B5-76337A291055}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">例子：
-1994-07-31 12:12
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{0F99D1C4-4ACB-4E02-A53D-D41EAAA2ED85}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>例子：
-1994-07-31 12:12</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>SKU编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,15 +71,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爱亲临时售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萌贝树临时售价</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小红马临时售价</t>
+    <t>临时售价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时会员价</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +83,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,13 +105,6 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,15 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -488,21 +432,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C6C0AF-DBEA-455D-BF9E-A9E55D2C4C54}">
-  <dimension ref="A1:N1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C6C0AF-DBEA-455D-BF9E-A9E55D2C4C54}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="27" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" customWidth="1"/>
-    <col min="4" max="5" width="27" style="3"/>
+    <col min="1" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,10 +462,10 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -541,15 +491,11 @@
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>